--- a/results/2023-12-04 15-28-49 - regularization, one_shot = False.xlsx
+++ b/results/2023-12-04 15-28-49 - regularization, one_shot = False.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erik.recio\Documents\GitHub\QCD\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\1. GitHub\QCD\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18750131-E856-439D-94F8-275D36DFAE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A801AD-0DA6-4F8B-A6B3-D8CE35247A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023-12-04 15-28-49 - regulariz" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="80">
   <si>
     <t>Regularisation</t>
   </si>
@@ -28,9 +39,6 @@
     <t>Without</t>
   </si>
   <si>
-    <t>With</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -251,12 +259,24 @@
   </si>
   <si>
     <t>AVG</t>
+  </si>
+  <si>
+    <t>With2</t>
+  </si>
+  <si>
+    <t>With1</t>
+  </si>
+  <si>
+    <t>str1</t>
+  </si>
+  <si>
+    <t>str1/2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -798,16 +818,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>229721</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>135031</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -830,8 +850,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5486400" y="571500"/>
-          <a:ext cx="4972050" cy="3933825"/>
+          <a:off x="8606118" y="392206"/>
+          <a:ext cx="4936191" cy="3933825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -842,16 +862,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>229721</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>135031</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -874,7 +894,51 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5486400" y="4762500"/>
+          <a:off x="8606118" y="4583206"/>
+          <a:ext cx="4936191" cy="3933825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>265580</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>157443</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67338205-BE0B-B8F7-4F2D-F58594382755}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8606118" y="8796618"/>
           <a:ext cx="4972050" cy="3933825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1183,51 +1247,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G79"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
       </c>
       <c r="B4">
         <v>-1</v>
@@ -1236,21 +1315,31 @@
         <v>0.21149999999999999</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>8.8900000000000007E-2</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G4">
         <v>0.579669031</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>8.8900000000000007E-2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4">
+        <f>IF(B4=1,(H4-C4)/C4,(C4-H4)/C4)</f>
+        <v>0.57966903073286047</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1259,21 +1348,31 @@
         <v>0.81320000000000003</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5">
         <v>0.68220000000000003</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G5">
         <v>-0.16109198199999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>0.68220000000000003</v>
+      </c>
+      <c r="I5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5:J68" si="0">IF(B5=1,(H5-C5)/C5,(C5-H5)/C5)</f>
+        <v>-0.16109198229217905</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>-1</v>
@@ -1282,21 +1381,31 @@
         <v>0.1231</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6">
         <v>1.04E-2</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6">
         <v>0.91551584100000005</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>1.04E-2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>0.91551584077985371</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1305,21 +1414,31 @@
         <v>0.72799999999999998</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7">
         <v>0.59960000000000002</v>
       </c>
       <c r="F7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G7">
         <v>-0.17637362600000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>0.59960000000000002</v>
+      </c>
+      <c r="I7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>-0.17637362637362633</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1328,21 +1447,31 @@
         <v>0.82789999999999997</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8">
         <v>0.69530000000000003</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G8">
         <v>-0.160164271</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>0.69530000000000003</v>
+      </c>
+      <c r="I8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>-0.16016427104722786</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1351,21 +1480,31 @@
         <v>0.6794</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9">
         <v>0.6774</v>
       </c>
       <c r="F9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G9">
         <v>-2.9437740000000001E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>0.6774</v>
+      </c>
+      <c r="I9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>-2.9437739181630879E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>-1</v>
@@ -1374,21 +1513,31 @@
         <v>0.25359999999999999</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10">
         <v>0.1358</v>
       </c>
       <c r="F10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G10">
         <v>0.46451104100000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>0.1358</v>
+      </c>
+      <c r="I10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>0.46451104100946367</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1397,21 +1546,31 @@
         <v>0.81679999999999997</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11">
         <v>0.68369999999999997</v>
       </c>
       <c r="F11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G11">
         <v>-0.16295298699999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>0.68369999999999997</v>
+      </c>
+      <c r="I11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>-0.16295298726738491</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1420,21 +1579,31 @@
         <v>0.87039999999999995</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12">
         <v>0.7359</v>
       </c>
       <c r="F12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G12">
         <v>-0.15452665400000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>0.7359</v>
+      </c>
+      <c r="I12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>-0.15452665441176466</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1443,21 +1612,31 @@
         <v>0.64359999999999995</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E13">
         <v>0.51390000000000002</v>
       </c>
       <c r="F13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G13">
         <v>-0.20152268500000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>0.51390000000000002</v>
+      </c>
+      <c r="I13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>-0.20152268489745173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1466,21 +1645,31 @@
         <v>0.878</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14">
         <v>0.78320000000000001</v>
       </c>
       <c r="F14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G14">
         <v>-0.107972665</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>0.78320000000000001</v>
+      </c>
+      <c r="I14" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>-0.10797266514806378</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1489,21 +1678,31 @@
         <v>0.8327</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E15">
         <v>0.70589999999999997</v>
       </c>
       <c r="F15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G15">
         <v>-0.15227573</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <v>0.70589999999999997</v>
+      </c>
+      <c r="I15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>-0.15227572955446142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1512,21 +1711,31 @@
         <v>0.76249999999999996</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E16">
         <v>0.63019999999999998</v>
       </c>
       <c r="F16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G16">
         <v>-0.173508197</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>0.63019999999999998</v>
+      </c>
+      <c r="I16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>-0.17350819672131146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>-1</v>
@@ -1535,21 +1744,31 @@
         <v>2.3400000000000001E-2</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E17">
         <v>-5.16E-2</v>
       </c>
       <c r="F17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G17">
         <v>3.2051282049999998</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>-5.16E-2</v>
+      </c>
+      <c r="I17" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>3.2051282051282048</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18">
         <v>-1</v>
@@ -1558,21 +1777,31 @@
         <v>0.21149999999999999</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E18">
         <v>8.8900000000000007E-2</v>
       </c>
       <c r="F18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G18">
         <v>0.579669031</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>8.8900000000000007E-2</v>
+      </c>
+      <c r="I18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>0.57966903073286047</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>-1</v>
@@ -1581,21 +1810,31 @@
         <v>0.18870000000000001</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E19">
         <v>7.7899999999999997E-2</v>
       </c>
       <c r="F19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G19">
         <v>0.58717541100000004</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>7.7899999999999997E-2</v>
+      </c>
+      <c r="I19" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>0.58717541070482249</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <v>-1</v>
@@ -1604,21 +1843,31 @@
         <v>5.3400000000000003E-2</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E20">
         <v>-6.6900000000000001E-2</v>
       </c>
       <c r="F20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G20">
         <v>2.252808989</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>-6.6900000000000001E-2</v>
+      </c>
+      <c r="I20" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>2.2528089887640448</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21">
         <v>-1</v>
@@ -1627,21 +1876,31 @@
         <v>0.13159999999999999</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E21">
         <v>1.1299999999999999E-2</v>
       </c>
       <c r="F21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G21">
         <v>0.91413373899999995</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="I21" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>0.91413373860182368</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22">
         <v>-1</v>
@@ -1650,21 +1909,31 @@
         <v>0.23039999999999999</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E22">
         <v>0.1186</v>
       </c>
       <c r="F22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G22">
         <v>0.48524305600000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <v>0.1186</v>
+      </c>
+      <c r="I22" t="s">
+        <v>7</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>0.48524305555555558</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23">
         <v>-1</v>
@@ -1673,21 +1942,31 @@
         <v>4.6699999999999998E-2</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E23">
         <v>-1.54E-2</v>
       </c>
       <c r="F23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G23">
         <v>1.329764454</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <v>-1.54E-2</v>
+      </c>
+      <c r="I23" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>1.3297644539614561</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24">
         <v>-1</v>
@@ -1696,21 +1975,31 @@
         <v>0.1908</v>
       </c>
       <c r="D24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E24">
         <v>6.8199999999999997E-2</v>
       </c>
       <c r="F24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G24">
         <v>0.64255765200000003</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <v>6.8199999999999997E-2</v>
+      </c>
+      <c r="I24" t="s">
+        <v>7</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>0.6425576519916143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -1719,21 +2008,31 @@
         <v>0.96640000000000004</v>
       </c>
       <c r="D25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E25">
         <v>0.84599999999999997</v>
       </c>
       <c r="F25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G25">
         <v>-0.12458609299999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="I25" t="s">
+        <v>7</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>-0.12458609271523184</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26">
         <v>-1</v>
@@ -1742,21 +2041,31 @@
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E26">
         <v>-5.7000000000000002E-3</v>
       </c>
       <c r="F26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G26">
         <v>1.0587628870000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <v>-5.7000000000000002E-3</v>
+      </c>
+      <c r="I26" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>1.0587628865979382</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -1765,21 +2074,31 @@
         <v>0.81679999999999997</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E27">
         <v>0.68369999999999997</v>
       </c>
       <c r="F27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G27">
         <v>-0.16295298699999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <v>0.68369999999999997</v>
+      </c>
+      <c r="I27" t="s">
+        <v>7</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>-0.16295298726738491</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28">
         <v>-1</v>
@@ -1788,21 +2107,31 @@
         <v>0.21460000000000001</v>
       </c>
       <c r="D28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E28">
         <v>0.11070000000000001</v>
       </c>
       <c r="F28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G28">
         <v>0.48415657000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <v>0.11070000000000001</v>
+      </c>
+      <c r="I28" t="s">
+        <v>7</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>0.48415657036346693</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29">
         <v>-1</v>
@@ -1811,21 +2140,31 @@
         <v>0.26119999999999999</v>
       </c>
       <c r="D29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E29">
         <v>0.1399</v>
       </c>
       <c r="F29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G29">
         <v>0.46439510000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <v>0.1399</v>
+      </c>
+      <c r="I29" t="s">
+        <v>7</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>0.46439509954058189</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30">
         <v>-1</v>
@@ -1834,21 +2173,31 @@
         <v>6.6500000000000004E-2</v>
       </c>
       <c r="D30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E30">
         <v>-5.0999999999999997E-2</v>
       </c>
       <c r="F30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G30">
         <v>1.7669172930000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <v>-5.0999999999999997E-2</v>
+      </c>
+      <c r="I30" t="s">
+        <v>7</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>1.7669172932330826</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -1857,21 +2206,31 @@
         <v>0.72799999999999998</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E31">
         <v>0.59960000000000002</v>
       </c>
       <c r="F31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G31">
         <v>-0.17637362600000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <v>0.59960000000000002</v>
+      </c>
+      <c r="I31" t="s">
+        <v>7</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>-0.17637362637362633</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -1880,21 +2239,31 @@
         <v>0.79449999999999998</v>
       </c>
       <c r="D32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E32">
         <v>0.66569999999999996</v>
       </c>
       <c r="F32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G32">
         <v>-0.162114537</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <v>0.66569999999999996</v>
+      </c>
+      <c r="I32" t="s">
+        <v>7</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="0"/>
+        <v>-0.16211453744493395</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -1903,21 +2272,31 @@
         <v>0.89690000000000003</v>
       </c>
       <c r="D33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E33">
         <v>0.76229999999999998</v>
       </c>
       <c r="F33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G33">
         <v>-0.15007247200000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <v>0.76229999999999998</v>
+      </c>
+      <c r="I33" t="s">
+        <v>7</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="0"/>
+        <v>-0.15007247184747469</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -1926,21 +2305,31 @@
         <v>0.77090000000000003</v>
       </c>
       <c r="D34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E34">
         <v>0.86060000000000003</v>
       </c>
       <c r="F34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G34">
         <v>0.116357504</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <v>0.86060000000000003</v>
+      </c>
+      <c r="I34" t="s">
+        <v>7</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="0"/>
+        <v>0.1163575042158516</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -1949,21 +2338,31 @@
         <v>0.84209999999999996</v>
       </c>
       <c r="D35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E35">
         <v>0.73899999999999999</v>
       </c>
       <c r="F35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G35">
         <v>-0.12243201500000001</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="I35" t="s">
+        <v>7</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="0"/>
+        <v>-0.12243201520009497</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -1972,21 +2371,31 @@
         <v>0.75629999999999997</v>
       </c>
       <c r="D36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E36">
         <v>0.64039999999999997</v>
       </c>
       <c r="F36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G36">
         <v>-0.15324606599999999</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <v>0.64039999999999997</v>
+      </c>
+      <c r="I36" t="s">
+        <v>7</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="0"/>
+        <v>-0.15324606637577681</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -1995,21 +2404,31 @@
         <v>0.97760000000000002</v>
       </c>
       <c r="D37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E37">
         <v>0.85089999999999999</v>
       </c>
       <c r="F37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G37">
         <v>-0.12960310999999999</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37">
+        <v>0.85089999999999999</v>
+      </c>
+      <c r="I37" t="s">
+        <v>7</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="0"/>
+        <v>-0.12960310965630117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -2018,21 +2437,31 @@
         <v>0.73960000000000004</v>
       </c>
       <c r="D38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E38">
         <v>0.60980000000000001</v>
       </c>
       <c r="F38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G38">
         <v>-0.17550027000000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38">
+        <v>0.60980000000000001</v>
+      </c>
+      <c r="I38" t="s">
+        <v>7</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="0"/>
+        <v>-0.17550027041644134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39">
         <v>-1</v>
@@ -2041,21 +2470,31 @@
         <v>0.27010000000000001</v>
       </c>
       <c r="D39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E39">
         <v>0.14649999999999999</v>
       </c>
       <c r="F39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G39">
         <v>0.457608293</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39">
+        <v>0.14649999999999999</v>
+      </c>
+      <c r="I39" t="s">
+        <v>7</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="0"/>
+        <v>0.45760829322473162</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B40">
         <v>-1</v>
@@ -2064,21 +2503,31 @@
         <v>0.37290000000000001</v>
       </c>
       <c r="D40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E40">
         <v>0.25369999999999998</v>
       </c>
       <c r="F40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G40">
         <v>0.31965674399999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40">
+        <v>0.25369999999999998</v>
+      </c>
+      <c r="I40" t="s">
+        <v>7</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="0"/>
+        <v>0.31965674443550557</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -2087,21 +2536,31 @@
         <v>0.68899999999999995</v>
       </c>
       <c r="D41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E41">
         <v>0.56079999999999997</v>
       </c>
       <c r="F41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G41">
         <v>-0.186066763</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41">
+        <v>0.56079999999999997</v>
+      </c>
+      <c r="I41" t="s">
+        <v>7</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="0"/>
+        <v>-0.18606676342525397</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -2110,21 +2569,31 @@
         <v>0.78259999999999996</v>
       </c>
       <c r="D42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E42">
         <v>0.64980000000000004</v>
       </c>
       <c r="F42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G42">
         <v>-0.16969077399999999</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42">
+        <v>0.64980000000000004</v>
+      </c>
+      <c r="I42" t="s">
+        <v>7</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="0"/>
+        <v>-0.16969077434193702</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -2133,21 +2602,31 @@
         <v>0.8306</v>
       </c>
       <c r="D43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E43">
         <v>0.69699999999999995</v>
       </c>
       <c r="F43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G43">
         <v>-0.16084757999999999</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="I43" t="s">
+        <v>7</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="0"/>
+        <v>-0.16084758006260541</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44">
         <v>-1</v>
@@ -2156,21 +2635,31 @@
         <v>0.27129999999999999</v>
       </c>
       <c r="D44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E44">
         <v>0.16239999999999999</v>
       </c>
       <c r="F44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G44">
         <v>0.40140066299999999</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44">
+        <v>0.16239999999999999</v>
+      </c>
+      <c r="I44" t="s">
+        <v>7</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="0"/>
+        <v>0.40140066347217102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -2179,21 +2668,31 @@
         <v>0.70130000000000003</v>
       </c>
       <c r="D45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E45">
         <v>0.56999999999999995</v>
       </c>
       <c r="F45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G45">
         <v>-0.18722372700000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I45" t="s">
+        <v>7</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="0"/>
+        <v>-0.18722372736346796</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46">
         <v>-1</v>
@@ -2202,21 +2701,31 @@
         <v>3.1699999999999999E-2</v>
       </c>
       <c r="D46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E46">
         <v>-7.1599999999999997E-2</v>
       </c>
       <c r="F46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G46">
         <v>3.2586750790000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46">
+        <v>-7.1599999999999997E-2</v>
+      </c>
+      <c r="I46" t="s">
+        <v>7</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="0"/>
+        <v>3.2586750788643535</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B47">
         <v>-1</v>
@@ -2225,21 +2734,31 @@
         <v>0.2135</v>
       </c>
       <c r="D47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E47">
         <v>0.45350000000000001</v>
       </c>
       <c r="F47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G47">
         <v>-1.1241217800000001</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47">
+        <v>0.45350000000000001</v>
+      </c>
+      <c r="I47" t="s">
+        <v>7</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="0"/>
+        <v>-1.1241217798594849</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48">
         <v>-1</v>
@@ -2248,21 +2767,31 @@
         <v>0.17269999999999999</v>
       </c>
       <c r="D48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E48">
         <v>5.0599999999999999E-2</v>
       </c>
       <c r="F48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G48">
         <v>0.70700636900000002</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48">
+        <v>5.0599999999999999E-2</v>
+      </c>
+      <c r="I48" t="s">
+        <v>7</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="0"/>
+        <v>0.70700636942675155</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B49">
         <v>-1</v>
@@ -2271,21 +2800,31 @@
         <v>0.25180000000000002</v>
       </c>
       <c r="D49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E49">
         <v>0.14449999999999999</v>
       </c>
       <c r="F49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G49">
         <v>0.42613185100000001</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49">
+        <v>0.14449999999999999</v>
+      </c>
+      <c r="I49" t="s">
+        <v>7</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="0"/>
+        <v>0.42613185067513909</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50">
         <v>-1</v>
@@ -2294,21 +2833,31 @@
         <v>0.2301</v>
       </c>
       <c r="D50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E50">
         <v>0.107</v>
       </c>
       <c r="F50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G50">
         <v>0.53498478900000002</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50">
+        <v>0.107</v>
+      </c>
+      <c r="I50" t="s">
+        <v>7</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="0"/>
+        <v>0.53498478922207737</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B51">
         <v>-1</v>
@@ -2317,21 +2866,31 @@
         <v>0.1908</v>
       </c>
       <c r="D51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E51">
         <v>6.8199999999999997E-2</v>
       </c>
       <c r="F51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G51">
         <v>0.64255765200000003</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51">
+        <v>6.8199999999999997E-2</v>
+      </c>
+      <c r="I51" t="s">
+        <v>7</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="0"/>
+        <v>0.6425576519916143</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52">
         <v>-1</v>
@@ -2340,21 +2899,31 @@
         <v>4.0599999999999997E-2</v>
       </c>
       <c r="D52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E52">
         <v>-0.04</v>
       </c>
       <c r="F52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G52">
         <v>1.985221675</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52">
+        <v>-0.04</v>
+      </c>
+      <c r="I52" t="s">
+        <v>7</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="0"/>
+        <v>1.9852216748768476</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B53">
         <v>-1</v>
@@ -2363,21 +2932,31 @@
         <v>0.25359999999999999</v>
       </c>
       <c r="D53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E53">
         <v>0.1358</v>
       </c>
       <c r="F53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G53">
         <v>0.46451104100000001</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53">
+        <v>0.1358</v>
+      </c>
+      <c r="I53" t="s">
+        <v>7</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="0"/>
+        <v>0.46451104100946367</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -2386,21 +2965,31 @@
         <v>0.74770000000000003</v>
       </c>
       <c r="D54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E54">
         <v>0.61550000000000005</v>
       </c>
       <c r="F54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G54">
         <v>-0.176808881</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54">
+        <v>0.61550000000000005</v>
+      </c>
+      <c r="I54" t="s">
+        <v>7</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="0"/>
+        <v>-0.17680888056707234</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -2409,21 +2998,31 @@
         <v>0.58040000000000003</v>
       </c>
       <c r="D55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E55">
         <v>0.47610000000000002</v>
       </c>
       <c r="F55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G55">
         <v>-0.17970365299999999</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H55">
+        <v>0.47610000000000002</v>
+      </c>
+      <c r="I55" t="s">
+        <v>54</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="0"/>
+        <v>-0.17970365265334251</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B56">
         <v>-1</v>
@@ -2432,21 +3031,31 @@
         <v>0.2301</v>
       </c>
       <c r="D56" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E56">
         <v>0.107</v>
       </c>
       <c r="F56" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G56">
         <v>0.53498478900000002</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56">
+        <v>0.107</v>
+      </c>
+      <c r="I56" t="s">
+        <v>7</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="0"/>
+        <v>0.53498478922207737</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57">
         <v>-1</v>
@@ -2455,21 +3064,31 @@
         <v>0.24030000000000001</v>
       </c>
       <c r="D57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E57">
         <v>0.12590000000000001</v>
       </c>
       <c r="F57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G57">
         <v>0.47607157700000002</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H57">
+        <v>0.12590000000000001</v>
+      </c>
+      <c r="I57" t="s">
+        <v>7</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="0"/>
+        <v>0.47607157719517268</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58">
         <v>-1</v>
@@ -2478,21 +3097,31 @@
         <v>0.29649999999999999</v>
       </c>
       <c r="D58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E58">
         <v>0.17219999999999999</v>
       </c>
       <c r="F58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G58">
         <v>0.41922428299999998</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H58">
+        <v>0.17219999999999999</v>
+      </c>
+      <c r="I58" t="s">
+        <v>7</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="0"/>
+        <v>0.41922428330522765</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -2501,21 +3130,31 @@
         <v>0.82210000000000005</v>
       </c>
       <c r="D59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E59">
         <v>0.69310000000000005</v>
       </c>
       <c r="F59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G59">
         <v>-0.156915217</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H59">
+        <v>0.69310000000000005</v>
+      </c>
+      <c r="I59" t="s">
+        <v>7</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="0"/>
+        <v>-0.1569152171268702</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B60">
         <v>-1</v>
@@ -2524,21 +3163,31 @@
         <v>0.13159999999999999</v>
       </c>
       <c r="D60" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E60">
         <v>1.1299999999999999E-2</v>
       </c>
       <c r="F60" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G60">
         <v>0.91413373899999995</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H60">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="I60" t="s">
+        <v>7</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="0"/>
+        <v>0.91413373860182368</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B61">
         <v>-1</v>
@@ -2547,21 +3196,31 @@
         <v>0.26219999999999999</v>
       </c>
       <c r="D61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E61">
         <v>0.14180000000000001</v>
       </c>
       <c r="F61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G61">
         <v>0.45919145700000003</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H61">
+        <v>0.14180000000000001</v>
+      </c>
+      <c r="I61" t="s">
+        <v>7</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="0"/>
+        <v>0.45919145690312735</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B62">
         <v>-1</v>
@@ -2570,21 +3229,31 @@
         <v>0.28070000000000001</v>
       </c>
       <c r="D62" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E62">
         <v>0.15740000000000001</v>
       </c>
       <c r="F62" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G62">
         <v>0.43925899499999999</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H62">
+        <v>0.15740000000000001</v>
+      </c>
+      <c r="I62" t="s">
+        <v>7</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="0"/>
+        <v>0.43925899536872104</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -2593,21 +3262,31 @@
         <v>0.8357</v>
       </c>
       <c r="D63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E63">
         <v>0.70489999999999997</v>
       </c>
       <c r="F63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G63">
         <v>-0.156515496</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H63">
+        <v>0.70489999999999997</v>
+      </c>
+      <c r="I63" t="s">
+        <v>7</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="0"/>
+        <v>-0.15651549599138451</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B64">
         <v>-1</v>
@@ -2616,21 +3295,31 @@
         <v>0.29670000000000002</v>
       </c>
       <c r="D64" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E64">
         <v>0.1754</v>
       </c>
       <c r="F64" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G64">
         <v>0.408830468</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H64">
+        <v>0.1754</v>
+      </c>
+      <c r="I64" t="s">
+        <v>7</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="0"/>
+        <v>0.40883046848668692</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B65">
         <v>-1</v>
@@ -2639,21 +3328,31 @@
         <v>0.3795</v>
       </c>
       <c r="D65" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E65">
         <v>0.25409999999999999</v>
       </c>
       <c r="F65" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G65">
         <v>0.33043478300000001</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H65">
+        <v>0.25409999999999999</v>
+      </c>
+      <c r="I65" t="s">
+        <v>7</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="0"/>
+        <v>0.33043478260869569</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -2662,21 +3361,31 @@
         <v>0.60980000000000001</v>
       </c>
       <c r="D66" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E66">
         <v>0.48120000000000002</v>
       </c>
       <c r="F66" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G66">
         <v>-0.21088881600000001</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H66">
+        <v>0.48120000000000002</v>
+      </c>
+      <c r="I66" t="s">
+        <v>54</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="0"/>
+        <v>-0.21088881600524761</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -2685,21 +3394,31 @@
         <v>0.55510000000000004</v>
       </c>
       <c r="D67" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E67">
         <v>0.55310000000000004</v>
       </c>
       <c r="F67" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G67">
         <v>-3.6029539999999998E-3</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H67">
+        <v>0.55310000000000004</v>
+      </c>
+      <c r="I67" t="s">
+        <v>7</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="0"/>
+        <v>-3.6029544226265568E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -2708,21 +3427,31 @@
         <v>0.81120000000000003</v>
       </c>
       <c r="D68" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E68">
         <v>0.68720000000000003</v>
       </c>
       <c r="F68" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G68">
         <v>-0.15285996099999999</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H68">
+        <v>0.68720000000000003</v>
+      </c>
+      <c r="I68" t="s">
+        <v>7</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="0"/>
+        <v>-0.15285996055226825</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -2731,21 +3460,31 @@
         <v>0.58389999999999997</v>
       </c>
       <c r="D69" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E69">
         <v>0.45729999999999998</v>
       </c>
       <c r="F69" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G69">
         <v>-0.21681794800000001</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H69">
+        <v>0.45729999999999998</v>
+      </c>
+      <c r="I69" t="s">
+        <v>54</v>
+      </c>
+      <c r="J69">
+        <f t="shared" ref="J69:J78" si="1">IF(B69=1,(H69-C69)/C69,(C69-H69)/C69)</f>
+        <v>-0.21681794827881487</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B70">
         <v>-1</v>
@@ -2754,21 +3493,31 @@
         <v>0.16189999999999999</v>
       </c>
       <c r="D70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E70">
         <v>4.7E-2</v>
       </c>
       <c r="F70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G70">
         <v>0.70969734399999995</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H70">
+        <v>4.7E-2</v>
+      </c>
+      <c r="I70" t="s">
+        <v>7</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="1"/>
+        <v>0.70969734403953055</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -2777,21 +3526,31 @@
         <v>0.53100000000000003</v>
       </c>
       <c r="D71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E71">
         <v>0.40560000000000002</v>
       </c>
       <c r="F71" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G71">
         <v>-0.23615819199999999</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H71">
+        <v>0.40560000000000002</v>
+      </c>
+      <c r="I71" t="s">
+        <v>54</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="1"/>
+        <v>-0.23615819209039549</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B72">
         <v>-1</v>
@@ -2800,21 +3559,31 @@
         <v>0.3553</v>
       </c>
       <c r="D72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E72">
         <v>0.2404</v>
       </c>
       <c r="F72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G72">
         <v>0.32338868599999998</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H72">
+        <v>0.2404</v>
+      </c>
+      <c r="I72" t="s">
+        <v>7</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="1"/>
+        <v>0.32338868561778777</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -2823,21 +3592,31 @@
         <v>0.80100000000000005</v>
       </c>
       <c r="D73" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E73">
         <v>0.69079999999999997</v>
       </c>
       <c r="F73" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G73">
         <v>-0.13757802699999999</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H73">
+        <v>0.69079999999999997</v>
+      </c>
+      <c r="I73" t="s">
+        <v>7</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="1"/>
+        <v>-0.137578027465668</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B74">
         <v>-1</v>
@@ -2846,21 +3625,31 @@
         <v>0.17419999999999999</v>
       </c>
       <c r="D74" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E74">
         <v>5.4300000000000001E-2</v>
       </c>
       <c r="F74" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G74">
         <v>0.68828932300000001</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H74">
+        <v>5.4300000000000001E-2</v>
+      </c>
+      <c r="I74" t="s">
+        <v>7</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="1"/>
+        <v>0.68828932261768083</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B75">
         <v>-1</v>
@@ -2869,21 +3658,31 @@
         <v>0.1231</v>
       </c>
       <c r="D75" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E75">
         <v>1.04E-2</v>
       </c>
       <c r="F75" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G75">
         <v>0.91551584100000005</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H75">
+        <v>1.04E-2</v>
+      </c>
+      <c r="I75" t="s">
+        <v>7</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="1"/>
+        <v>0.91551584077985371</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B76">
         <v>-1</v>
@@ -2892,21 +3691,31 @@
         <v>0.2351</v>
       </c>
       <c r="D76" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E76">
         <v>0.1132</v>
       </c>
       <c r="F76" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G76">
         <v>0.51850276500000003</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H76">
+        <v>0.1132</v>
+      </c>
+      <c r="I76" t="s">
+        <v>7</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="1"/>
+        <v>0.51850276478094426</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -2915,21 +3724,31 @@
         <v>0.8004</v>
       </c>
       <c r="D77" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E77">
         <v>0.6673</v>
       </c>
       <c r="F77" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G77">
         <v>-0.16629185399999999</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H77">
+        <v>0.6673</v>
+      </c>
+      <c r="I77" t="s">
+        <v>7</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="1"/>
+        <v>-0.16629185407296351</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -2938,24 +3757,41 @@
         <v>0.63390000000000002</v>
       </c>
       <c r="D78" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E78">
         <v>0.56459999999999999</v>
       </c>
       <c r="F78" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G78">
         <v>-0.109323237</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H78">
+        <v>0.56459999999999999</v>
+      </c>
+      <c r="I78" t="s">
+        <v>7</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="1"/>
+        <v>-0.10932323710364415</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F79" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G79">
         <v>0.34187220499999998</v>
+      </c>
+      <c r="I79" t="s">
+        <v>75</v>
+      </c>
+      <c r="J79">
+        <f>AVERAGE(J4:J78)</f>
+        <v>0.34187220531103341</v>
       </c>
     </row>
   </sheetData>
